--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonia\Desktop\Crate\Crate\Crate\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="Account" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Settings" sheetId="3" r:id="rId3"/>
+    <sheet name="Companies" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="212">
   <si>
     <t>Username</t>
   </si>
@@ -250,12 +256,414 @@
   </si>
   <si>
     <t>duncan@gmail.com</t>
+  </si>
+  <si>
+    <t>Fieldname</t>
+  </si>
+  <si>
+    <t>Admin tab</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>html/body/div[2]/h2</t>
+  </si>
+  <si>
+    <t>settingV</t>
+  </si>
+  <si>
+    <t>.//*[@id='AddRoom']</t>
+  </si>
+  <si>
+    <t>Addroom</t>
+  </si>
+  <si>
+    <t>.//*[@id='AssetName']</t>
+  </si>
+  <si>
+    <t>roomnametb</t>
+  </si>
+  <si>
+    <t>.//*[@id='Addnewroom']</t>
+  </si>
+  <si>
+    <t>savebtn</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>applybtn</t>
+  </si>
+  <si>
+    <t>colorpicker</t>
+  </si>
+  <si>
+    <t>.//*[@id='top-bar-menu']/div[1]/ul/li[6]/ul/li/ul/li[1]/a</t>
+  </si>
+  <si>
+    <t>.//*[@id='Room-List']/tr[1]/td[3]/a[2]</t>
+  </si>
+  <si>
+    <t>Editbtn</t>
+  </si>
+  <si>
+    <t>.//*[@id='updateRoom']</t>
+  </si>
+  <si>
+    <t>Updatebtn</t>
+  </si>
+  <si>
+    <t>editV</t>
+  </si>
+  <si>
+    <t>.//*[@id='RoomName']</t>
+  </si>
+  <si>
+    <t>EditRoomname</t>
+  </si>
+  <si>
+    <t>Sky</t>
+  </si>
+  <si>
+    <t>.//*[@id='Room-List']/tr[2]/td[3]/a[2]</t>
+  </si>
+  <si>
+    <t>editbtn1</t>
+  </si>
+  <si>
+    <t>InValid_Name</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>Characters inthe name thirtyone.</t>
+  </si>
+  <si>
+    <t>Fun' Room</t>
+  </si>
+  <si>
+    <t>characters#</t>
+  </si>
+  <si>
+    <t>Room no - 1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Valid_Roomname</t>
+  </si>
+  <si>
+    <t>Thirty Characters in the Rname</t>
+  </si>
+  <si>
+    <t>.//*[@id='beehive-alert']/p</t>
+  </si>
+  <si>
+    <t>Alert</t>
+  </si>
+  <si>
+    <t>@#$@$#$%</t>
+  </si>
+  <si>
+    <t>.//*[@id='beehive-alert']/button</t>
+  </si>
+  <si>
+    <t>Alertbtn</t>
+  </si>
+  <si>
+    <t>.//*[@id='Room-List']/tr[1]/td[3]/a[1]</t>
+  </si>
+  <si>
+    <t>Deletebtn</t>
+  </si>
+  <si>
+    <t>.//*[@id='panel2v']/div[1]/div/div/div[2]/div[2]/a</t>
+  </si>
+  <si>
+    <t>AddnewAsset</t>
+  </si>
+  <si>
+    <t>.//*[@id='AssetType']</t>
+  </si>
+  <si>
+    <t>AssettypeDD</t>
+  </si>
+  <si>
+    <t>.//*[@id='AssetType']/option[2]</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>Asset name</t>
+  </si>
+  <si>
+    <t>.//*[@id='RoomNumber']</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>.//*[@id='RoomNumber']/option[2]</t>
+  </si>
+  <si>
+    <t>room option</t>
+  </si>
+  <si>
+    <t>.//*[@id='add']</t>
+  </si>
+  <si>
+    <t>.//*[@id='panel2v-label']</t>
+  </si>
+  <si>
+    <t>Assettab</t>
+  </si>
+  <si>
+    <t>Room name list</t>
+  </si>
+  <si>
+    <t>Asset name list</t>
+  </si>
+  <si>
+    <t>.//*[@id='AssetList']/tr[i]/td[1]</t>
+  </si>
+  <si>
+    <t>.//*[@id='AssetList']/tr[5]/td[3]/a[2]</t>
+  </si>
+  <si>
+    <t>.//*[@id='AssetList']/tr[i]/td[2]</t>
+  </si>
+  <si>
+    <t>#fff000</t>
+  </si>
+  <si>
+    <t>//*[@id="AssetList"]/tr[1]/td[3]/a[1]</t>
+  </si>
+  <si>
+    <t>Editsavebtn</t>
+  </si>
+  <si>
+    <t>.//*[@id='AssetList']/tr[1]/td[2]</t>
+  </si>
+  <si>
+    <t>Assetname list</t>
+  </si>
+  <si>
+    <t>V_Asset name</t>
+  </si>
+  <si>
+    <t>InV_Asset name</t>
+  </si>
+  <si>
+    <t>Asset no - 1</t>
+  </si>
+  <si>
+    <t>html/body/div[2]/form/div[2]/div/span/span</t>
+  </si>
+  <si>
+    <t>Assetnameval</t>
+  </si>
+  <si>
+    <t>//div[@class='k-controls']/button[1]</t>
+  </si>
+  <si>
+    <t>//div[@class='k-hsv-gradient']</t>
+  </si>
+  <si>
+    <t>select color</t>
+  </si>
+  <si>
+    <t>.//*[@id='Room-List']/tr[i]/td[2]</t>
+  </si>
+  <si>
+    <t>.//*[@id='panel1v']/div/div/div/div[2]/a[4]</t>
+  </si>
+  <si>
+    <t>Frozen</t>
+  </si>
+  <si>
+    <t>.//*[@id='pagination']/a[4]</t>
+  </si>
+  <si>
+    <t>Rpagilastbtn</t>
+  </si>
+  <si>
+    <t>Assetpagilastbtn</t>
+  </si>
+  <si>
+    <t>Hmmm</t>
+  </si>
+  <si>
+    <t>.//*[@id='add-new-room-form']/div[2]/span/span/span[1]</t>
+  </si>
+  <si>
+    <t>.//*[@class='k-input']</t>
+  </si>
+  <si>
+    <t>AssetFilter</t>
+  </si>
+  <si>
+    <t>Pokeko</t>
+  </si>
+  <si>
+    <t>//button[@type='submit']</t>
+  </si>
+  <si>
+    <t>.//*[@id='panel4v-label']</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>.//*[@id='blurb-content']</t>
+  </si>
+  <si>
+    <t>Dash Textbox</t>
+  </si>
+  <si>
+    <t>Good Morning</t>
+  </si>
+  <si>
+    <t>.//*[@id='edit-blurb']/div/button</t>
+  </si>
+  <si>
+    <t>Dash Updatebtn</t>
+  </si>
+  <si>
+    <t>//h2</t>
+  </si>
+  <si>
+    <t>Dash Validation</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>.//*[@id='panel3v-label']</t>
+  </si>
+  <si>
+    <t>.//*[@id='delete-company-logo']</t>
+  </si>
+  <si>
+    <t>Deletelogobtn</t>
+  </si>
+  <si>
+    <t>.//*[@id='imgUploadPreview']</t>
+  </si>
+  <si>
+    <t>C:\Users\sonia\Desktop\Crate\crate logo.png</t>
+  </si>
+  <si>
+    <t>uploadlogo</t>
+  </si>
+  <si>
+    <t>.//*[@id='update-company-logo']</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id="top-bar-menu"]/div[1]/ul/li[6]/ul/li/a</t>
+  </si>
+  <si>
+    <t>//*[@id="top-bar-menu"]/div[1]/ul/li[6]/ul/li/ul/li[3]/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Companies </t>
+  </si>
+  <si>
+    <t>//a[@href='/Account/AddNewCompany']</t>
+  </si>
+  <si>
+    <t>Add new</t>
+  </si>
+  <si>
+    <t>company name tb</t>
+  </si>
+  <si>
+    <t>Add finder</t>
+  </si>
+  <si>
+    <t>.//*[@id='StreetNumber']</t>
+  </si>
+  <si>
+    <t>Street number</t>
+  </si>
+  <si>
+    <t>.//*[@id='StreetName']</t>
+  </si>
+  <si>
+    <t>street name</t>
+  </si>
+  <si>
+    <t>.//*[@id='Suburb']</t>
+  </si>
+  <si>
+    <t>suburb</t>
+  </si>
+  <si>
+    <t>.//*[@id='City']</t>
+  </si>
+  <si>
+    <t>.//*[@id='PostCode']</t>
+  </si>
+  <si>
+    <t>.//*[@id='Website']</t>
+  </si>
+  <si>
+    <t>.//*[@id='imgUpload']</t>
+  </si>
+  <si>
+    <t>.//*[@id='submitBtn']</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>imgupload</t>
+  </si>
+  <si>
+    <t>submitbtn</t>
+  </si>
+  <si>
+    <t>email id</t>
+  </si>
+  <si>
+    <t>newsexport</t>
+  </si>
+  <si>
+    <t>newsexport@gmail.com</t>
+  </si>
+  <si>
+    <t>98 carlton gore rd, newmarket</t>
+  </si>
+  <si>
+    <t>Carlton</t>
+  </si>
+  <si>
+    <t>//div[@class='pac-item'][1]</t>
+  </si>
+  <si>
+    <t>1st suggestion</t>
+  </si>
+  <si>
+    <t>http://experieco.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,10 +709,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -315,6 +726,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -363,7 +777,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,9 +810,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,6 +862,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -607,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,6 +1089,9 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -655,7 +1106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1157,12 +1608,806 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="76" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" display="characters@"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonia\Desktop\Crate\Crate\Crate\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonia\Desktop\CRATE\Crate\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="216">
   <si>
     <t>Username</t>
   </si>
@@ -564,21 +564,9 @@
     <t>.//*[@id='update-company-logo']</t>
   </si>
   <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>//*[@id="top-bar-menu"]/div[1]/ul/li[6]/ul/li/a</t>
-  </si>
-  <si>
-    <t>//*[@id="top-bar-menu"]/div[1]/ul/li[6]/ul/li/ul/li[3]/a</t>
-  </si>
-  <si>
     <t xml:space="preserve">Companies </t>
   </si>
   <si>
-    <t>//a[@href='/Account/AddNewCompany']</t>
-  </si>
-  <si>
     <t>Add new</t>
   </si>
   <si>
@@ -618,9 +606,6 @@
     <t>.//*[@id='imgUpload']</t>
   </si>
   <si>
-    <t>.//*[@id='submitBtn']</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -639,18 +624,12 @@
     <t>email id</t>
   </si>
   <si>
-    <t>newsexport</t>
-  </si>
-  <si>
     <t>newsexport@gmail.com</t>
   </si>
   <si>
     <t>98 carlton gore rd, newmarket</t>
   </si>
   <si>
-    <t>Carlton</t>
-  </si>
-  <si>
     <t>//div[@class='pac-item'][1]</t>
   </si>
   <si>
@@ -658,6 +637,39 @@
   </si>
   <si>
     <t>http://experieco.com/</t>
+  </si>
+  <si>
+    <t>.//*[@id='top-bar-menu']/div[1]/ul/li[6]/ul/li/ul/li[3]/a</t>
+  </si>
+  <si>
+    <t>.//a[@href='/Account/AddNewCompany']</t>
+  </si>
+  <si>
+    <t>Carlton gore rd</t>
+  </si>
+  <si>
+    <t>Newmarket</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>Newsexport</t>
+  </si>
+  <si>
+    <t>.//*[@id='btn4']</t>
+  </si>
+  <si>
+    <t>lastpage btn</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>submitBtn</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -1608,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,21 +2196,24 @@
         <v>179</v>
       </c>
     </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" display="characters@"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,96 +2241,96 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D9">
         <v>98</v>
@@ -2323,85 +2338,116 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="D11" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>190</v>
+      </c>
+      <c r="D12" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>191</v>
+      </c>
+      <c r="D13">
+        <v>1023</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2409,5 +2455,6 @@
     <hyperlink ref="D6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>